--- a/store/layout/report/Category_Wise_Department_Issue.xlsx
+++ b/store/layout/report/Category_Wise_Department_Issue.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15">
   <si>
     <t>Department</t>
   </si>
@@ -41,19 +41,25 @@
     <t>Percentage</t>
   </si>
   <si>
-    <t>Production: Level-03</t>
-  </si>
-  <si>
-    <t>All Purchases Item</t>
-  </si>
-  <si>
-    <t>Hamim Smart 55'' LED TV</t>
-  </si>
-  <si>
-    <t>Production: Level-04</t>
-  </si>
-  <si>
-    <t>Scaf</t>
+    <t>IT</t>
+  </si>
+  <si>
+    <t>Stationary</t>
+  </si>
+  <si>
+    <t>Ball Pen Green</t>
+  </si>
+  <si>
+    <t>Ball Pen (Black)</t>
+  </si>
+  <si>
+    <t>Ball Pen (rad)</t>
+  </si>
+  <si>
+    <t>Gel Pen</t>
+  </si>
+  <si>
+    <t>Fluid Pen</t>
   </si>
 </sst>
 </file>
@@ -393,7 +399,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,71 +444,123 @@
         <v>10</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="E2">
-        <v>43000.0</v>
+        <v>4.5</v>
       </c>
       <c r="F2">
-        <v>43000.0</v>
+        <v>4.5</v>
       </c>
       <c r="G2">
-        <v>43000.0</v>
+        <v>211.5</v>
       </c>
       <c r="H2">
-        <v>32.45</v>
+        <v>17.26</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D3">
-        <v>620</v>
+        <v>14</v>
       </c>
       <c r="E3">
-        <v>75.0</v>
+        <v>5.0</v>
       </c>
       <c r="F3">
-        <v>75.0</v>
+        <v>5.0</v>
       </c>
       <c r="G3">
-        <v>46500.0</v>
+        <v>70.0</v>
       </c>
       <c r="H3">
-        <v>35.09</v>
+        <v>5.71</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E4">
-        <v>43000.0</v>
+        <v>5.0</v>
       </c>
       <c r="F4">
-        <v>43000.0</v>
+        <v>5.0</v>
       </c>
       <c r="G4">
-        <v>43000.0</v>
+        <v>60.0</v>
       </c>
       <c r="H4">
-        <v>32.45</v>
+        <v>4.9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5">
+        <v>8</v>
+      </c>
+      <c r="E5">
+        <v>9.0</v>
+      </c>
+      <c r="F5">
+        <v>9.0</v>
+      </c>
+      <c r="G5">
+        <v>72.0</v>
+      </c>
+      <c r="H5">
+        <v>5.88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6">
+        <v>7</v>
+      </c>
+      <c r="E6">
+        <v>116.0</v>
+      </c>
+      <c r="F6">
+        <v>116.0</v>
+      </c>
+      <c r="G6">
+        <v>812.0</v>
+      </c>
+      <c r="H6">
+        <v>66.26</v>
       </c>
     </row>
   </sheetData>
